--- a/dataanalysis/data/predictions/1200/07311153_1156.xlsx
+++ b/dataanalysis/data/predictions/1200/07311153_1156.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="198">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-07-31</t>
   </si>
   <si>
@@ -605,12 +608,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -968,13 +965,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH102"/>
+  <dimension ref="A1:AI102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1077,19 +1074,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300006</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>5.03</v>
@@ -1107,7 +1107,7 @@
         <v>57446.32</v>
       </c>
       <c r="J2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K2">
         <v>13</v>
@@ -1148,8 +1148,23 @@
       <c r="W2">
         <v>-0.18</v>
       </c>
+      <c r="X2">
+        <v>-5.81</v>
+      </c>
+      <c r="Y2">
+        <v>5.8</v>
+      </c>
+      <c r="Z2">
+        <v>2.84</v>
+      </c>
       <c r="AC2" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1157,22 +1172,25 @@
       <c r="AG2">
         <v>6.346246242523193</v>
       </c>
-      <c r="AH2" t="s">
-        <v>197</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300009</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>18.14</v>
@@ -1190,7 +1208,7 @@
         <v>249447.48</v>
       </c>
       <c r="J3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1231,8 +1249,23 @@
       <c r="W3">
         <v>0.37</v>
       </c>
+      <c r="X3">
+        <v>-1.73</v>
+      </c>
+      <c r="Y3">
+        <v>12.7</v>
+      </c>
+      <c r="Z3">
+        <v>6.54</v>
+      </c>
       <c r="AC3" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -1240,22 +1273,25 @@
       <c r="AG3">
         <v>4.744010448455811</v>
       </c>
-      <c r="AH3" t="s">
-        <v>198</v>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300021</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0.16</v>
@@ -1273,7 +1309,7 @@
         <v>54732.08</v>
       </c>
       <c r="J4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K4">
         <v>7</v>
@@ -1314,8 +1350,23 @@
       <c r="W4">
         <v>0.05</v>
       </c>
+      <c r="X4">
+        <v>-9.34</v>
+      </c>
+      <c r="Y4">
+        <v>6.18</v>
+      </c>
+      <c r="Z4">
+        <v>-0.64</v>
+      </c>
       <c r="AC4" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1323,22 +1374,25 @@
       <c r="AG4">
         <v>2.396338939666748</v>
       </c>
-      <c r="AH4" t="s">
-        <v>197</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300066</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>-1.15</v>
@@ -1356,7 +1410,7 @@
         <v>25246.97</v>
       </c>
       <c r="J5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K5">
         <v>15</v>
@@ -1397,8 +1451,23 @@
       <c r="W5">
         <v>-0.62</v>
       </c>
+      <c r="X5">
+        <v>-2.35</v>
+      </c>
+      <c r="Y5">
+        <v>5.97</v>
+      </c>
+      <c r="Z5">
+        <v>-0.83</v>
+      </c>
       <c r="AC5" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1406,22 +1475,25 @@
       <c r="AG5">
         <v>4.722991943359375</v>
       </c>
-      <c r="AH5" t="s">
-        <v>197</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300086</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>3.18</v>
@@ -1439,7 +1511,7 @@
         <v>81814.11</v>
       </c>
       <c r="J6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K6">
         <v>8</v>
@@ -1480,8 +1552,23 @@
       <c r="W6">
         <v>0.05</v>
       </c>
+      <c r="X6">
+        <v>-7.15</v>
+      </c>
+      <c r="Y6">
+        <v>8.68</v>
+      </c>
+      <c r="Z6">
+        <v>-0.8</v>
+      </c>
       <c r="AC6" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1489,22 +1576,25 @@
       <c r="AG6">
         <v>3.579126834869385</v>
       </c>
-      <c r="AH6" t="s">
-        <v>197</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300095</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>1.38</v>
@@ -1522,7 +1612,7 @@
         <v>34700.47</v>
       </c>
       <c r="J7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K7">
         <v>8</v>
@@ -1563,8 +1653,23 @@
       <c r="W7">
         <v>0.74</v>
       </c>
+      <c r="X7">
+        <v>-3.98</v>
+      </c>
+      <c r="Y7">
+        <v>11.03</v>
+      </c>
+      <c r="Z7">
+        <v>0.27</v>
+      </c>
       <c r="AC7" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1572,22 +1677,25 @@
       <c r="AG7">
         <v>3.225768804550171</v>
       </c>
-      <c r="AH7" t="s">
-        <v>197</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300149</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>4.07</v>
@@ -1605,7 +1713,7 @@
         <v>119162.61</v>
       </c>
       <c r="J8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -1646,8 +1754,23 @@
       <c r="W8">
         <v>0.15</v>
       </c>
+      <c r="X8">
+        <v>-6.6</v>
+      </c>
+      <c r="Y8">
+        <v>14.66</v>
+      </c>
+      <c r="Z8">
+        <v>2.45</v>
+      </c>
       <c r="AC8" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1655,22 +1778,25 @@
       <c r="AG8">
         <v>0.3074972331523895</v>
       </c>
-      <c r="AH8" t="s">
-        <v>197</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300158</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>19.22</v>
@@ -1688,7 +1814,7 @@
         <v>175691.88</v>
       </c>
       <c r="J9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K9">
         <v>7</v>
@@ -1729,8 +1855,23 @@
       <c r="W9">
         <v>0.91</v>
       </c>
+      <c r="X9">
+        <v>-5.45</v>
+      </c>
+      <c r="Y9">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="Z9">
+        <v>-3.86</v>
+      </c>
       <c r="AC9" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1738,22 +1879,25 @@
       <c r="AG9">
         <v>2.824695825576782</v>
       </c>
-      <c r="AH9" t="s">
-        <v>197</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300188</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>-1.97</v>
@@ -1771,7 +1915,7 @@
         <v>73665</v>
       </c>
       <c r="J10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1812,8 +1956,23 @@
       <c r="W10">
         <v>-0.44</v>
       </c>
+      <c r="X10">
+        <v>5.94</v>
+      </c>
+      <c r="Y10">
+        <v>18.27</v>
+      </c>
+      <c r="Z10">
+        <v>5</v>
+      </c>
       <c r="AC10" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1821,22 +1980,25 @@
       <c r="AG10">
         <v>3.700641870498657</v>
       </c>
-      <c r="AH10" t="s">
-        <v>197</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300199</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>7.91</v>
@@ -1854,7 +2016,7 @@
         <v>236518.78</v>
       </c>
       <c r="J11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1895,8 +2057,23 @@
       <c r="W11">
         <v>0.67</v>
       </c>
+      <c r="X11">
+        <v>-0.78</v>
+      </c>
+      <c r="Y11">
+        <v>21.84</v>
+      </c>
+      <c r="Z11">
+        <v>6.02</v>
+      </c>
       <c r="AC11" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>1</v>
@@ -1904,22 +2081,25 @@
       <c r="AG11">
         <v>2.230518817901611</v>
       </c>
-      <c r="AH11" t="s">
-        <v>198</v>
+      <c r="AH11">
+        <v>1</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300224</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>0.06</v>
@@ -1937,7 +2117,7 @@
         <v>28102.16</v>
       </c>
       <c r="J12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K12">
         <v>6</v>
@@ -1978,8 +2158,23 @@
       <c r="W12">
         <v>-0.03</v>
       </c>
+      <c r="X12">
+        <v>-2.14</v>
+      </c>
+      <c r="Y12">
+        <v>15.87</v>
+      </c>
+      <c r="Z12">
+        <v>-1.73</v>
+      </c>
       <c r="AC12" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1987,22 +2182,25 @@
       <c r="AG12">
         <v>9.807145118713379</v>
       </c>
-      <c r="AH12" t="s">
-        <v>197</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300254</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>2.05</v>
@@ -2020,7 +2218,7 @@
         <v>41908.67</v>
       </c>
       <c r="J13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K13">
         <v>7</v>
@@ -2061,8 +2259,23 @@
       <c r="W13">
         <v>-1.18</v>
       </c>
+      <c r="X13">
+        <v>-3.38</v>
+      </c>
+      <c r="Y13">
+        <v>14.23</v>
+      </c>
+      <c r="Z13">
+        <v>9.800000000000001</v>
+      </c>
       <c r="AC13" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2070,22 +2283,25 @@
       <c r="AG13">
         <v>1.312330722808838</v>
       </c>
-      <c r="AH13" t="s">
-        <v>197</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300267</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>4.7</v>
@@ -2103,7 +2319,7 @@
         <v>83282.21000000001</v>
       </c>
       <c r="J14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K14">
         <v>5</v>
@@ -2144,8 +2360,23 @@
       <c r="W14">
         <v>0.15</v>
       </c>
+      <c r="X14">
+        <v>-9.59</v>
+      </c>
+      <c r="Y14">
+        <v>4.78</v>
+      </c>
+      <c r="Z14">
+        <v>2.14</v>
+      </c>
       <c r="AC14" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2153,22 +2384,25 @@
       <c r="AG14">
         <v>1.349970459938049</v>
       </c>
-      <c r="AH14" t="s">
-        <v>197</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300322</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>5.04</v>
@@ -2186,7 +2420,7 @@
         <v>232137.19</v>
       </c>
       <c r="J15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K15">
         <v>4</v>
@@ -2227,8 +2461,23 @@
       <c r="W15">
         <v>0.11</v>
       </c>
+      <c r="X15">
+        <v>-3.76</v>
+      </c>
+      <c r="Y15">
+        <v>20.3</v>
+      </c>
+      <c r="Z15">
+        <v>1.4</v>
+      </c>
       <c r="AC15" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2236,22 +2485,25 @@
       <c r="AG15">
         <v>5.210937976837158</v>
       </c>
-      <c r="AH15" t="s">
-        <v>197</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300363</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>0.45</v>
@@ -2269,7 +2521,7 @@
         <v>67058.52</v>
       </c>
       <c r="J16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K16">
         <v>7</v>
@@ -2310,8 +2562,23 @@
       <c r="W16">
         <v>-0.62</v>
       </c>
+      <c r="X16">
+        <v>-1.13</v>
+      </c>
+      <c r="Y16">
+        <v>24.35</v>
+      </c>
+      <c r="Z16">
+        <v>-0.2</v>
+      </c>
       <c r="AC16" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2319,22 +2586,25 @@
       <c r="AG16">
         <v>2.21429705619812</v>
       </c>
-      <c r="AH16" t="s">
-        <v>197</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300378</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>12.34</v>
@@ -2352,7 +2622,7 @@
         <v>136120.15</v>
       </c>
       <c r="J17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K17">
         <v>5</v>
@@ -2393,8 +2663,23 @@
       <c r="W17">
         <v>0.78</v>
       </c>
+      <c r="X17">
+        <v>16.06</v>
+      </c>
+      <c r="Y17">
+        <v>63.06</v>
+      </c>
+      <c r="Z17">
+        <v>14.28</v>
+      </c>
       <c r="AC17" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2402,22 +2687,25 @@
       <c r="AG17">
         <v>3.62455153465271</v>
       </c>
-      <c r="AH17" t="s">
-        <v>197</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300404</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>2.14</v>
@@ -2435,7 +2723,7 @@
         <v>29847.56</v>
       </c>
       <c r="J18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -2476,8 +2764,23 @@
       <c r="W18">
         <v>0.12</v>
       </c>
+      <c r="X18">
+        <v>-2.39</v>
+      </c>
+      <c r="Y18">
+        <v>11.49</v>
+      </c>
+      <c r="Z18">
+        <v>0.44</v>
+      </c>
       <c r="AC18" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2485,22 +2788,25 @@
       <c r="AG18">
         <v>6.000366687774658</v>
       </c>
-      <c r="AH18" t="s">
-        <v>197</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300410</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>1.06</v>
@@ -2518,7 +2824,7 @@
         <v>61435.31</v>
       </c>
       <c r="J19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -2559,8 +2865,23 @@
       <c r="W19">
         <v>-0.83</v>
       </c>
+      <c r="X19">
+        <v>4.12</v>
+      </c>
+      <c r="Y19">
+        <v>9.43</v>
+      </c>
+      <c r="Z19">
+        <v>9.65</v>
+      </c>
       <c r="AC19" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2568,22 +2889,25 @@
       <c r="AG19">
         <v>1.507608532905579</v>
       </c>
-      <c r="AH19" t="s">
-        <v>197</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300414</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>-2.33</v>
@@ -2601,7 +2925,7 @@
         <v>59060.15</v>
       </c>
       <c r="J20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K20">
         <v>14</v>
@@ -2642,8 +2966,23 @@
       <c r="W20">
         <v>-0.47</v>
       </c>
+      <c r="X20">
+        <v>3.95</v>
+      </c>
+      <c r="Y20">
+        <v>16.15</v>
+      </c>
+      <c r="Z20">
+        <v>6.88</v>
+      </c>
       <c r="AC20" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2651,22 +2990,25 @@
       <c r="AG20">
         <v>3.331970453262329</v>
       </c>
-      <c r="AH20" t="s">
-        <v>197</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300434</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>-0.34</v>
@@ -2684,7 +3026,7 @@
         <v>40506.52</v>
       </c>
       <c r="J21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -2725,8 +3067,23 @@
       <c r="W21">
         <v>-0.61</v>
       </c>
+      <c r="X21">
+        <v>-0.97</v>
+      </c>
+      <c r="Y21">
+        <v>11.62</v>
+      </c>
+      <c r="Z21">
+        <v>0.52</v>
+      </c>
       <c r="AC21" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2734,22 +3091,25 @@
       <c r="AG21">
         <v>3.713278532028198</v>
       </c>
-      <c r="AH21" t="s">
-        <v>197</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300436</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>17.79</v>
@@ -2767,7 +3127,7 @@
         <v>152092.06</v>
       </c>
       <c r="J22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K22">
         <v>21</v>
@@ -2808,8 +3168,23 @@
       <c r="W22">
         <v>-0.47</v>
       </c>
+      <c r="X22">
+        <v>-10.66</v>
+      </c>
+      <c r="Y22">
+        <v>115.13</v>
+      </c>
+      <c r="Z22">
+        <v>0.76</v>
+      </c>
       <c r="AC22" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>1</v>
@@ -2817,22 +3192,25 @@
       <c r="AG22">
         <v>2.758537769317627</v>
       </c>
-      <c r="AH22" t="s">
-        <v>197</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300452</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>2.57</v>
@@ -2850,7 +3228,7 @@
         <v>27543.04</v>
       </c>
       <c r="J23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -2891,8 +3269,23 @@
       <c r="W23">
         <v>0.46</v>
       </c>
+      <c r="X23">
+        <v>-2.32</v>
+      </c>
+      <c r="Y23">
+        <v>15.2</v>
+      </c>
+      <c r="Z23">
+        <v>2.77</v>
+      </c>
       <c r="AC23" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2900,22 +3293,25 @@
       <c r="AG23">
         <v>1.519111752510071</v>
       </c>
-      <c r="AH23" t="s">
-        <v>197</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300467</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>0.58</v>
@@ -2933,7 +3329,7 @@
         <v>21737.21</v>
       </c>
       <c r="J24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -2974,8 +3370,23 @@
       <c r="W24">
         <v>-0.15</v>
       </c>
+      <c r="X24">
+        <v>-1.08</v>
+      </c>
+      <c r="Y24">
+        <v>24.1</v>
+      </c>
+      <c r="Z24">
+        <v>-1.03</v>
+      </c>
       <c r="AC24" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>1</v>
@@ -2983,22 +3394,25 @@
       <c r="AG24">
         <v>5.687113285064697</v>
       </c>
-      <c r="AH24" t="s">
-        <v>197</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300469</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>2.13</v>
@@ -3016,7 +3430,7 @@
         <v>42665.47</v>
       </c>
       <c r="J25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K25">
         <v>13</v>
@@ -3057,8 +3471,23 @@
       <c r="W25">
         <v>-0.03</v>
       </c>
+      <c r="X25">
+        <v>-4.98</v>
+      </c>
+      <c r="Y25">
+        <v>47.93</v>
+      </c>
+      <c r="Z25">
+        <v>-0.83</v>
+      </c>
       <c r="AC25" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3066,22 +3495,25 @@
       <c r="AG25">
         <v>3.4504554271698</v>
       </c>
-      <c r="AH25" t="s">
-        <v>197</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300485</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>4.07</v>
@@ -3099,7 +3531,7 @@
         <v>39289.92</v>
       </c>
       <c r="J26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -3140,8 +3572,23 @@
       <c r="W26">
         <v>0.62</v>
       </c>
+      <c r="X26">
+        <v>-2.32</v>
+      </c>
+      <c r="Y26">
+        <v>15.6</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
       <c r="AC26" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3149,22 +3596,25 @@
       <c r="AG26">
         <v>1.383590698242188</v>
       </c>
-      <c r="AH26" t="s">
-        <v>197</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300502</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>4.76</v>
@@ -3182,7 +3632,7 @@
         <v>799060.28</v>
       </c>
       <c r="J27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K27">
         <v>27</v>
@@ -3223,8 +3673,23 @@
       <c r="W27">
         <v>0.13</v>
       </c>
+      <c r="X27">
+        <v>-3.22</v>
+      </c>
+      <c r="Y27">
+        <v>191.6</v>
+      </c>
+      <c r="Z27">
+        <v>-3.92</v>
+      </c>
       <c r="AC27" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>1</v>
@@ -3232,22 +3697,25 @@
       <c r="AG27">
         <v>11.32884693145752</v>
       </c>
-      <c r="AH27" t="s">
-        <v>197</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300505</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-0.19</v>
@@ -3265,7 +3733,7 @@
         <v>26783.86</v>
       </c>
       <c r="J28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -3306,8 +3774,23 @@
       <c r="W28">
         <v>-0.2</v>
       </c>
+      <c r="X28">
+        <v>3.9</v>
+      </c>
+      <c r="Y28">
+        <v>22.66</v>
+      </c>
+      <c r="Z28">
+        <v>9.31</v>
+      </c>
       <c r="AC28" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3315,22 +3798,25 @@
       <c r="AG28">
         <v>3.779549360275269</v>
       </c>
-      <c r="AH28" t="s">
-        <v>197</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300522</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>2.66</v>
@@ -3348,7 +3834,7 @@
         <v>31210.32</v>
       </c>
       <c r="J29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -3389,8 +3875,23 @@
       <c r="W29">
         <v>0.49</v>
       </c>
+      <c r="X29">
+        <v>-3.51</v>
+      </c>
+      <c r="Y29">
+        <v>15.06</v>
+      </c>
+      <c r="Z29">
+        <v>-2.59</v>
+      </c>
       <c r="AC29" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3398,22 +3899,25 @@
       <c r="AG29">
         <v>3.694938182830811</v>
       </c>
-      <c r="AH29" t="s">
-        <v>197</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300528</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>-7.31</v>
@@ -3431,7 +3935,7 @@
         <v>158413.9</v>
       </c>
       <c r="J30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K30">
         <v>7</v>
@@ -3472,8 +3976,23 @@
       <c r="W30">
         <v>-1.5</v>
       </c>
+      <c r="X30">
+        <v>-8.050000000000001</v>
+      </c>
+      <c r="Y30">
+        <v>24.6</v>
+      </c>
+      <c r="Z30">
+        <v>4.81</v>
+      </c>
       <c r="AC30" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3481,22 +4000,25 @@
       <c r="AG30">
         <v>3.120354413986206</v>
       </c>
-      <c r="AH30" t="s">
-        <v>197</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300533</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>-1.53</v>
@@ -3514,7 +4036,7 @@
         <v>37291.37</v>
       </c>
       <c r="J31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K31">
         <v>27</v>
@@ -3555,8 +4077,23 @@
       <c r="W31">
         <v>-0.43</v>
       </c>
+      <c r="X31">
+        <v>-3.54</v>
+      </c>
+      <c r="Y31">
+        <v>36.38</v>
+      </c>
+      <c r="Z31">
+        <v>-2.78</v>
+      </c>
       <c r="AC31" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3564,22 +4101,25 @@
       <c r="AG31">
         <v>2.225252151489258</v>
       </c>
-      <c r="AH31" t="s">
-        <v>197</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300537</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-1.2</v>
@@ -3597,7 +4137,7 @@
         <v>22223.75</v>
       </c>
       <c r="J32" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -3638,8 +4178,23 @@
       <c r="W32">
         <v>-0.38</v>
       </c>
+      <c r="X32">
+        <v>-1.2</v>
+      </c>
+      <c r="Y32">
+        <v>25.94</v>
+      </c>
+      <c r="Z32">
+        <v>-1.29</v>
+      </c>
       <c r="AC32" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3647,22 +4202,25 @@
       <c r="AG32">
         <v>1.001200914382935</v>
       </c>
-      <c r="AH32" t="s">
-        <v>197</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300539</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>-4.73</v>
@@ -3680,7 +4238,7 @@
         <v>49871.93</v>
       </c>
       <c r="J33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K33">
         <v>6</v>
@@ -3721,8 +4279,23 @@
       <c r="W33">
         <v>0.16</v>
       </c>
+      <c r="X33">
+        <v>-15</v>
+      </c>
+      <c r="Y33">
+        <v>27.46</v>
+      </c>
+      <c r="Z33">
+        <v>1.07</v>
+      </c>
       <c r="AC33" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3730,22 +4303,25 @@
       <c r="AG33">
         <v>7.062418460845947</v>
       </c>
-      <c r="AH33" t="s">
-        <v>197</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300548</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>0.33</v>
@@ -3763,7 +4339,7 @@
         <v>181787.56</v>
       </c>
       <c r="J34" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K34">
         <v>13</v>
@@ -3804,8 +4380,23 @@
       <c r="W34">
         <v>0.35</v>
       </c>
+      <c r="X34">
+        <v>-1.68</v>
+      </c>
+      <c r="Y34">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="Z34">
+        <v>-4.28</v>
+      </c>
       <c r="AC34" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3813,22 +4404,25 @@
       <c r="AG34">
         <v>1.343003034591675</v>
       </c>
-      <c r="AH34" t="s">
-        <v>197</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300581</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>0.54</v>
@@ -3846,7 +4440,7 @@
         <v>99299.61</v>
       </c>
       <c r="J35" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -3887,8 +4481,23 @@
       <c r="W35">
         <v>-0.03</v>
       </c>
+      <c r="X35">
+        <v>-5.79</v>
+      </c>
+      <c r="Y35">
+        <v>22.65</v>
+      </c>
+      <c r="Z35">
+        <v>2.07</v>
+      </c>
       <c r="AC35" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3896,22 +4505,25 @@
       <c r="AG35">
         <v>1.536752700805664</v>
       </c>
-      <c r="AH35" t="s">
-        <v>197</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300588</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>7.37</v>
@@ -3929,7 +4541,7 @@
         <v>45919.26</v>
       </c>
       <c r="J36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -3970,8 +4582,23 @@
       <c r="W36">
         <v>0.29</v>
       </c>
+      <c r="X36">
+        <v>-0.87</v>
+      </c>
+      <c r="Y36">
+        <v>20.7</v>
+      </c>
+      <c r="Z36">
+        <v>2.22</v>
+      </c>
       <c r="AC36" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3979,22 +4606,25 @@
       <c r="AG36">
         <v>0.5865175127983093</v>
       </c>
-      <c r="AH36" t="s">
-        <v>197</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300591</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>1.01</v>
@@ -4012,7 +4642,7 @@
         <v>68566.06</v>
       </c>
       <c r="J37" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -4053,8 +4683,23 @@
       <c r="W37">
         <v>1.67</v>
       </c>
+      <c r="X37">
+        <v>-6.11</v>
+      </c>
+      <c r="Y37">
+        <v>11.97</v>
+      </c>
+      <c r="Z37">
+        <v>0.17</v>
+      </c>
       <c r="AC37" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4062,22 +4707,25 @@
       <c r="AG37">
         <v>1.641375184059143</v>
       </c>
-      <c r="AH37" t="s">
-        <v>197</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300600</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>-7.32</v>
@@ -4095,7 +4743,7 @@
         <v>65706.83</v>
       </c>
       <c r="J38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -4136,8 +4784,23 @@
       <c r="W38">
         <v>-1.84</v>
       </c>
+      <c r="X38">
+        <v>-4.12</v>
+      </c>
+      <c r="Y38">
+        <v>17.1</v>
+      </c>
+      <c r="Z38">
+        <v>2.33</v>
+      </c>
       <c r="AC38" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4145,22 +4808,25 @@
       <c r="AG38">
         <v>3.280744314193726</v>
       </c>
-      <c r="AH38" t="s">
-        <v>197</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300609</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>4.88</v>
@@ -4178,7 +4844,7 @@
         <v>35287.7</v>
       </c>
       <c r="J39" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -4219,8 +4885,23 @@
       <c r="W39">
         <v>-0.04</v>
       </c>
+      <c r="X39">
+        <v>0.5</v>
+      </c>
+      <c r="Y39">
+        <v>42.52</v>
+      </c>
+      <c r="Z39">
+        <v>0.38</v>
+      </c>
       <c r="AC39" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4228,22 +4909,25 @@
       <c r="AG39">
         <v>1.964139342308044</v>
       </c>
-      <c r="AH39" t="s">
-        <v>197</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>300631</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>-0.83</v>
@@ -4261,7 +4945,7 @@
         <v>13361.31</v>
       </c>
       <c r="J40" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K40">
         <v>14</v>
@@ -4302,8 +4986,23 @@
       <c r="W40">
         <v>-0.17</v>
       </c>
+      <c r="X40">
+        <v>1.08</v>
+      </c>
+      <c r="Y40">
+        <v>31.87</v>
+      </c>
+      <c r="Z40">
+        <v>2.81</v>
+      </c>
       <c r="AC40" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>1</v>
@@ -4311,22 +5010,25 @@
       <c r="AG40">
         <v>5.933166027069092</v>
       </c>
-      <c r="AH40" t="s">
-        <v>197</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>300644</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>-0.33</v>
@@ -4344,7 +5046,7 @@
         <v>16776</v>
       </c>
       <c r="J41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K41">
         <v>11</v>
@@ -4385,8 +5087,23 @@
       <c r="W41">
         <v>-0.25</v>
       </c>
+      <c r="X41">
+        <v>-1.91</v>
+      </c>
+      <c r="Y41">
+        <v>32.82</v>
+      </c>
+      <c r="Z41">
+        <v>0.24</v>
+      </c>
       <c r="AC41" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4394,22 +5111,25 @@
       <c r="AG41">
         <v>3.20231294631958</v>
       </c>
-      <c r="AH41" t="s">
-        <v>197</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>300683</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>10.14</v>
@@ -4427,7 +5147,7 @@
         <v>74236.17999999999</v>
       </c>
       <c r="J42" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K42">
         <v>9</v>
@@ -4468,8 +5188,23 @@
       <c r="W42">
         <v>0.1</v>
       </c>
+      <c r="X42">
+        <v>5.73</v>
+      </c>
+      <c r="Y42">
+        <v>59.62</v>
+      </c>
+      <c r="Z42">
+        <v>4.14</v>
+      </c>
       <c r="AC42" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4477,22 +5212,25 @@
       <c r="AG42">
         <v>6.995209217071533</v>
       </c>
-      <c r="AH42" t="s">
-        <v>197</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>300684</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>2.31</v>
@@ -4510,7 +5248,7 @@
         <v>66241.24000000001</v>
       </c>
       <c r="J43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -4551,8 +5289,23 @@
       <c r="W43">
         <v>1.22</v>
       </c>
+      <c r="X43">
+        <v>0.47</v>
+      </c>
+      <c r="Y43">
+        <v>31.88</v>
+      </c>
+      <c r="Z43">
+        <v>4.35</v>
+      </c>
       <c r="AC43" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4560,22 +5313,25 @@
       <c r="AG43">
         <v>2.08588719367981</v>
       </c>
-      <c r="AH43" t="s">
-        <v>197</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>300706</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-4.95</v>
@@ -4593,7 +5349,7 @@
         <v>79725.77</v>
       </c>
       <c r="J44" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K44">
         <v>5</v>
@@ -4634,8 +5390,23 @@
       <c r="W44">
         <v>-0.78</v>
       </c>
+      <c r="X44">
+        <v>-8.52</v>
+      </c>
+      <c r="Y44">
+        <v>36.79</v>
+      </c>
+      <c r="Z44">
+        <v>0.27</v>
+      </c>
       <c r="AC44" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4643,22 +5414,25 @@
       <c r="AG44">
         <v>1.915471196174622</v>
       </c>
-      <c r="AH44" t="s">
-        <v>197</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>300722</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>0.18</v>
@@ -4676,7 +5450,7 @@
         <v>37375.24</v>
       </c>
       <c r="J45" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K45">
         <v>9</v>
@@ -4717,8 +5491,23 @@
       <c r="W45">
         <v>-0.05</v>
       </c>
+      <c r="X45">
+        <v>-5.33</v>
+      </c>
+      <c r="Y45">
+        <v>39.19</v>
+      </c>
+      <c r="Z45">
+        <v>0.1</v>
+      </c>
       <c r="AC45" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4726,22 +5515,25 @@
       <c r="AG45">
         <v>2.677895784378052</v>
       </c>
-      <c r="AH45" t="s">
-        <v>197</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>300725</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>2.64</v>
@@ -4759,7 +5551,7 @@
         <v>94259.69</v>
       </c>
       <c r="J46" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K46">
         <v>3</v>
@@ -4800,8 +5592,23 @@
       <c r="W46">
         <v>0.42</v>
       </c>
+      <c r="X46">
+        <v>-4.08</v>
+      </c>
+      <c r="Y46">
+        <v>50.4</v>
+      </c>
+      <c r="Z46">
+        <v>-0.4</v>
+      </c>
       <c r="AC46" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>1</v>
@@ -4809,22 +5616,25 @@
       <c r="AG46">
         <v>5.960809230804443</v>
       </c>
-      <c r="AH46" t="s">
-        <v>198</v>
+      <c r="AH46">
+        <v>1</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>300732</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>8.19</v>
@@ -4842,7 +5652,7 @@
         <v>108795.58</v>
       </c>
       <c r="J47" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -4883,8 +5693,23 @@
       <c r="W47">
         <v>-0.39</v>
       </c>
+      <c r="X47">
+        <v>-5.76</v>
+      </c>
+      <c r="Y47">
+        <v>11.78</v>
+      </c>
+      <c r="Z47">
+        <v>2.52</v>
+      </c>
       <c r="AC47" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4892,22 +5717,25 @@
       <c r="AG47">
         <v>-0.8444575667381287</v>
       </c>
-      <c r="AH47" t="s">
-        <v>197</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>300747</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>0.03</v>
@@ -4925,7 +5753,7 @@
         <v>58290.68</v>
       </c>
       <c r="J48" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K48">
         <v>11</v>
@@ -4966,8 +5794,23 @@
       <c r="W48">
         <v>0.22</v>
       </c>
+      <c r="X48">
+        <v>0.1</v>
+      </c>
+      <c r="Y48">
+        <v>31.06</v>
+      </c>
+      <c r="Z48">
+        <v>3.6</v>
+      </c>
       <c r="AC48" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4975,22 +5818,25 @@
       <c r="AG48">
         <v>2.354538917541504</v>
       </c>
-      <c r="AH48" t="s">
-        <v>197</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>300767</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>-7.64</v>
@@ -5008,7 +5854,7 @@
         <v>35473.47</v>
       </c>
       <c r="J49" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K49">
         <v>1</v>
@@ -5049,8 +5895,23 @@
       <c r="W49">
         <v>-1.26</v>
       </c>
+      <c r="X49">
+        <v>0.95</v>
+      </c>
+      <c r="Y49">
+        <v>14.05</v>
+      </c>
+      <c r="Z49">
+        <v>0.21</v>
+      </c>
       <c r="AC49" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -5058,22 +5919,25 @@
       <c r="AG49">
         <v>1.16862165927887</v>
       </c>
-      <c r="AH49" t="s">
-        <v>197</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>300803</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>-0.97</v>
@@ -5091,7 +5955,7 @@
         <v>161341.84</v>
       </c>
       <c r="J50" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K50">
         <v>25</v>
@@ -5132,8 +5996,23 @@
       <c r="W50">
         <v>-0.38</v>
       </c>
+      <c r="X50">
+        <v>-0.83</v>
+      </c>
+      <c r="Y50">
+        <v>90.26000000000001</v>
+      </c>
+      <c r="Z50">
+        <v>-0.92</v>
+      </c>
       <c r="AC50" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5141,22 +6020,25 @@
       <c r="AG50">
         <v>2.289334058761597</v>
       </c>
-      <c r="AH50" t="s">
-        <v>197</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>300830</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>11.06</v>
@@ -5174,7 +6056,7 @@
         <v>71477.17999999999</v>
       </c>
       <c r="J51" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K51">
         <v>1</v>
@@ -5215,8 +6097,23 @@
       <c r="W51">
         <v>2.33</v>
       </c>
+      <c r="X51">
+        <v>3.28</v>
+      </c>
+      <c r="Y51">
+        <v>11.45</v>
+      </c>
+      <c r="Z51">
+        <v>0.88</v>
+      </c>
       <c r="AC51" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5224,22 +6121,25 @@
       <c r="AG51">
         <v>4.24894905090332</v>
       </c>
-      <c r="AH51" t="s">
-        <v>197</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>300835</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>3.26</v>
@@ -5257,7 +6157,7 @@
         <v>43802.53</v>
       </c>
       <c r="J52" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K52">
         <v>8</v>
@@ -5298,8 +6198,23 @@
       <c r="W52">
         <v>0.11</v>
       </c>
+      <c r="X52">
+        <v>-2.42</v>
+      </c>
+      <c r="Y52">
+        <v>57.8</v>
+      </c>
+      <c r="Z52">
+        <v>-2.32</v>
+      </c>
       <c r="AC52" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5307,22 +6222,25 @@
       <c r="AG52">
         <v>1.978066921234131</v>
       </c>
-      <c r="AH52" t="s">
-        <v>197</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>300841</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>3.96</v>
@@ -5340,7 +6258,7 @@
         <v>49222.67</v>
       </c>
       <c r="J53" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K53">
         <v>1</v>
@@ -5381,8 +6299,23 @@
       <c r="W53">
         <v>0.04</v>
       </c>
+      <c r="X53">
+        <v>2.52</v>
+      </c>
+      <c r="Y53">
+        <v>82.08</v>
+      </c>
+      <c r="Z53">
+        <v>7.79</v>
+      </c>
       <c r="AC53" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>1</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5390,22 +6323,25 @@
       <c r="AG53">
         <v>4.457950115203857</v>
       </c>
-      <c r="AH53" t="s">
-        <v>197</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>300869</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>0.05</v>
@@ -5423,7 +6359,7 @@
         <v>53334.49</v>
       </c>
       <c r="J54" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K54">
         <v>4</v>
@@ -5464,8 +6400,23 @@
       <c r="W54">
         <v>-0.29</v>
       </c>
+      <c r="X54">
+        <v>-4.35</v>
+      </c>
+      <c r="Y54">
+        <v>20.5</v>
+      </c>
+      <c r="Z54">
+        <v>0.05</v>
+      </c>
       <c r="AC54" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5473,22 +6424,25 @@
       <c r="AG54">
         <v>1.057442784309387</v>
       </c>
-      <c r="AH54" t="s">
-        <v>197</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>300872</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>-0.24</v>
@@ -5506,7 +6460,7 @@
         <v>67363.75</v>
       </c>
       <c r="J55" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K55">
         <v>6</v>
@@ -5547,8 +6501,23 @@
       <c r="W55">
         <v>-0.37</v>
       </c>
+      <c r="X55">
+        <v>-4.1</v>
+      </c>
+      <c r="Y55">
+        <v>24.84</v>
+      </c>
+      <c r="Z55">
+        <v>-1.82</v>
+      </c>
       <c r="AC55" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5556,22 +6525,25 @@
       <c r="AG55">
         <v>3.795250177383423</v>
       </c>
-      <c r="AH55" t="s">
-        <v>197</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>300877</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>0.2</v>
@@ -5589,7 +6561,7 @@
         <v>35460.06</v>
       </c>
       <c r="J56" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K56">
         <v>5</v>
@@ -5630,8 +6602,23 @@
       <c r="W56">
         <v>0.25</v>
       </c>
+      <c r="X56">
+        <v>0.73</v>
+      </c>
+      <c r="Y56">
+        <v>32.77</v>
+      </c>
+      <c r="Z56">
+        <v>6.88</v>
+      </c>
       <c r="AC56" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5639,22 +6626,25 @@
       <c r="AG56">
         <v>5.673003673553467</v>
       </c>
-      <c r="AH56" t="s">
-        <v>197</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>300885</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>-1.37</v>
@@ -5672,7 +6662,7 @@
         <v>92583.2</v>
       </c>
       <c r="J57" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K57">
         <v>7</v>
@@ -5713,8 +6703,23 @@
       <c r="W57">
         <v>1.76</v>
       </c>
+      <c r="X57">
+        <v>-5.23</v>
+      </c>
+      <c r="Y57">
+        <v>23.12</v>
+      </c>
+      <c r="Z57">
+        <v>0.39</v>
+      </c>
       <c r="AC57" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>1</v>
@@ -5722,22 +6727,25 @@
       <c r="AG57">
         <v>7.015463352203369</v>
       </c>
-      <c r="AH57" t="s">
-        <v>197</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>300903</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>1.08</v>
@@ -5755,7 +6763,7 @@
         <v>57825.56</v>
       </c>
       <c r="J58" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K58">
         <v>3</v>
@@ -5796,8 +6804,23 @@
       <c r="W58">
         <v>0</v>
       </c>
+      <c r="X58">
+        <v>-2.35</v>
+      </c>
+      <c r="Y58">
+        <v>12.13</v>
+      </c>
+      <c r="Z58">
+        <v>-0.33</v>
+      </c>
       <c r="AC58" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5805,22 +6828,25 @@
       <c r="AG58">
         <v>2.670286417007446</v>
       </c>
-      <c r="AH58" t="s">
-        <v>197</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>300907</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>-0.42</v>
@@ -5838,7 +6864,7 @@
         <v>16072.12</v>
       </c>
       <c r="J59" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K59">
         <v>2</v>
@@ -5879,8 +6905,23 @@
       <c r="W59">
         <v>-0.31</v>
       </c>
+      <c r="X59">
+        <v>1.76</v>
+      </c>
+      <c r="Y59">
+        <v>35.09</v>
+      </c>
+      <c r="Z59">
+        <v>6.69</v>
+      </c>
       <c r="AC59" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5888,22 +6929,25 @@
       <c r="AG59">
         <v>4.295340061187744</v>
       </c>
-      <c r="AH59" t="s">
-        <v>197</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>300987</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>1.35</v>
@@ -5921,7 +6965,7 @@
         <v>30501.35</v>
       </c>
       <c r="J60" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -5962,8 +7006,23 @@
       <c r="W60">
         <v>-0.24</v>
       </c>
+      <c r="X60">
+        <v>-0.77</v>
+      </c>
+      <c r="Y60">
+        <v>22.2</v>
+      </c>
+      <c r="Z60">
+        <v>-1.77</v>
+      </c>
       <c r="AC60" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -5971,22 +7030,25 @@
       <c r="AG60">
         <v>1.333497285842896</v>
       </c>
-      <c r="AH60" t="s">
-        <v>197</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>301005</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>3.41</v>
@@ -6004,7 +7066,7 @@
         <v>67980.61</v>
       </c>
       <c r="J61" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K61">
         <v>1</v>
@@ -6045,8 +7107,23 @@
       <c r="W61">
         <v>0.64</v>
       </c>
+      <c r="X61">
+        <v>-5.48</v>
+      </c>
+      <c r="Y61">
+        <v>43.74</v>
+      </c>
+      <c r="Z61">
+        <v>-1.97</v>
+      </c>
       <c r="AC61" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -6054,22 +7131,25 @@
       <c r="AG61">
         <v>3.651698350906372</v>
       </c>
-      <c r="AH61" t="s">
-        <v>197</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>301007</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>0.42</v>
@@ -6087,7 +7167,7 @@
         <v>30345.12</v>
       </c>
       <c r="J62" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K62">
         <v>5</v>
@@ -6128,8 +7208,23 @@
       <c r="W62">
         <v>-0.27</v>
       </c>
+      <c r="X62">
+        <v>-1.97</v>
+      </c>
+      <c r="Y62">
+        <v>40.19</v>
+      </c>
+      <c r="Z62">
+        <v>3.85</v>
+      </c>
       <c r="AC62" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -6137,22 +7232,25 @@
       <c r="AG62">
         <v>1.602477192878723</v>
       </c>
-      <c r="AH62" t="s">
-        <v>197</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>301038</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>-8.59</v>
@@ -6170,7 +7268,7 @@
         <v>58739.26</v>
       </c>
       <c r="J63" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K63">
         <v>3</v>
@@ -6211,8 +7309,23 @@
       <c r="W63">
         <v>0.18</v>
       </c>
+      <c r="X63">
+        <v>3.1</v>
+      </c>
+      <c r="Y63">
+        <v>33.28</v>
+      </c>
+      <c r="Z63">
+        <v>7.08</v>
+      </c>
       <c r="AC63" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>1</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6220,22 +7333,25 @@
       <c r="AG63">
         <v>5.001880168914795</v>
       </c>
-      <c r="AH63" t="s">
-        <v>197</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>301095</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>2.8</v>
@@ -6253,7 +7369,7 @@
         <v>46093.95</v>
       </c>
       <c r="J64" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -6294,8 +7410,23 @@
       <c r="W64">
         <v>-0.18</v>
       </c>
+      <c r="X64">
+        <v>-0.1</v>
+      </c>
+      <c r="Y64">
+        <v>64.64</v>
+      </c>
+      <c r="Z64">
+        <v>0.59</v>
+      </c>
       <c r="AC64" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>1</v>
@@ -6303,22 +7434,25 @@
       <c r="AG64">
         <v>5.035157680511475</v>
       </c>
-      <c r="AH64" t="s">
-        <v>197</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>301132</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>-1.8</v>
@@ -6336,7 +7470,7 @@
         <v>31181.59</v>
       </c>
       <c r="J65" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K65">
         <v>4</v>
@@ -6377,8 +7511,23 @@
       <c r="W65">
         <v>-0.8</v>
       </c>
+      <c r="X65">
+        <v>-2.35</v>
+      </c>
+      <c r="Y65">
+        <v>39.05</v>
+      </c>
+      <c r="Z65">
+        <v>-0.51</v>
+      </c>
       <c r="AC65" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6386,22 +7535,25 @@
       <c r="AG65">
         <v>1.519845604896545</v>
       </c>
-      <c r="AH65" t="s">
-        <v>197</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>301150</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>12.44</v>
@@ -6419,7 +7571,7 @@
         <v>63409.08</v>
       </c>
       <c r="J66" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K66">
         <v>5</v>
@@ -6460,8 +7612,23 @@
       <c r="W66">
         <v>0.73</v>
       </c>
+      <c r="X66">
+        <v>-1.93</v>
+      </c>
+      <c r="Y66">
+        <v>29.51</v>
+      </c>
+      <c r="Z66">
+        <v>2.64</v>
+      </c>
       <c r="AC66" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6469,22 +7636,25 @@
       <c r="AG66">
         <v>2.854003667831421</v>
       </c>
-      <c r="AH66" t="s">
-        <v>197</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>301151</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>-2.34</v>
@@ -6502,7 +7672,7 @@
         <v>24105.85</v>
       </c>
       <c r="J67" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K67">
         <v>7</v>
@@ -6543,8 +7713,23 @@
       <c r="W67">
         <v>0.43</v>
       </c>
+      <c r="X67">
+        <v>-5.23</v>
+      </c>
+      <c r="Y67">
+        <v>22.73</v>
+      </c>
+      <c r="Z67">
+        <v>-2.9</v>
+      </c>
       <c r="AC67" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6552,22 +7737,25 @@
       <c r="AG67">
         <v>4.078729629516602</v>
       </c>
-      <c r="AH67" t="s">
-        <v>197</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>301165</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>5.86</v>
@@ -6585,7 +7773,7 @@
         <v>80009.38</v>
       </c>
       <c r="J68" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -6626,8 +7814,23 @@
       <c r="W68">
         <v>1</v>
       </c>
+      <c r="X68">
+        <v>-1.81</v>
+      </c>
+      <c r="Y68">
+        <v>64.8</v>
+      </c>
+      <c r="Z68">
+        <v>-1.14</v>
+      </c>
       <c r="AC68" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6635,22 +7838,25 @@
       <c r="AG68">
         <v>1.587958097457886</v>
       </c>
-      <c r="AH68" t="s">
-        <v>197</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>301183</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>8.06</v>
@@ -6668,7 +7874,7 @@
         <v>95348.13</v>
       </c>
       <c r="J69" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K69">
         <v>12</v>
@@ -6709,8 +7915,23 @@
       <c r="W69">
         <v>2.83</v>
       </c>
+      <c r="X69">
+        <v>-6.56</v>
+      </c>
+      <c r="Y69">
+        <v>68.66</v>
+      </c>
+      <c r="Z69">
+        <v>-4.47</v>
+      </c>
       <c r="AC69" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
       </c>
       <c r="AF69">
         <v>1</v>
@@ -6718,22 +7939,25 @@
       <c r="AG69">
         <v>3.418338298797607</v>
       </c>
-      <c r="AH69" t="s">
-        <v>198</v>
+      <c r="AH69">
+        <v>1</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>301200</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>14.54</v>
@@ -6751,7 +7975,7 @@
         <v>79663.99000000001</v>
       </c>
       <c r="J70" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K70">
         <v>6</v>
@@ -6792,8 +8016,23 @@
       <c r="W70">
         <v>1.25</v>
       </c>
+      <c r="X70">
+        <v>-4.86</v>
+      </c>
+      <c r="Y70">
+        <v>78.88</v>
+      </c>
+      <c r="Z70">
+        <v>-2.47</v>
+      </c>
       <c r="AC70" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -6801,22 +8040,25 @@
       <c r="AG70">
         <v>3.689680099487305</v>
       </c>
-      <c r="AH70" t="s">
-        <v>197</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>301217</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>1.66</v>
@@ -6834,7 +8076,7 @@
         <v>132955.69</v>
       </c>
       <c r="J71" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K71">
         <v>19</v>
@@ -6875,8 +8117,23 @@
       <c r="W71">
         <v>0.03</v>
       </c>
+      <c r="X71">
+        <v>-3.5</v>
+      </c>
+      <c r="Y71">
+        <v>27.09</v>
+      </c>
+      <c r="Z71">
+        <v>0.3</v>
+      </c>
       <c r="AC71" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -6884,22 +8141,25 @@
       <c r="AG71">
         <v>0.4943538010120392</v>
       </c>
-      <c r="AH71" t="s">
-        <v>197</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>301235</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>4.43</v>
@@ -6917,7 +8177,7 @@
         <v>59851.53</v>
       </c>
       <c r="J72" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K72">
         <v>1</v>
@@ -6958,8 +8218,23 @@
       <c r="W72">
         <v>0.41</v>
       </c>
+      <c r="X72">
+        <v>-5.97</v>
+      </c>
+      <c r="Y72">
+        <v>33.7</v>
+      </c>
+      <c r="Z72">
+        <v>-2.77</v>
+      </c>
       <c r="AC72" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -6967,22 +8242,25 @@
       <c r="AG72">
         <v>1.509286284446716</v>
       </c>
-      <c r="AH72" t="s">
-        <v>197</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>301285</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>-0.41</v>
@@ -7000,7 +8278,7 @@
         <v>30301.87</v>
       </c>
       <c r="J73" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K73">
         <v>4</v>
@@ -7041,8 +8319,23 @@
       <c r="W73">
         <v>-0.06</v>
       </c>
+      <c r="X73">
+        <v>3.63</v>
+      </c>
+      <c r="Y73">
+        <v>42.71</v>
+      </c>
+      <c r="Z73">
+        <v>2.79</v>
+      </c>
       <c r="AC73" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -7050,22 +8343,25 @@
       <c r="AG73">
         <v>2.864335536956787</v>
       </c>
-      <c r="AH73" t="s">
-        <v>197</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>301306</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74">
         <v>-2.59</v>
@@ -7083,7 +8379,7 @@
         <v>37820.42</v>
       </c>
       <c r="J74" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K74">
         <v>7</v>
@@ -7124,8 +8420,23 @@
       <c r="W74">
         <v>0.23</v>
       </c>
+      <c r="X74">
+        <v>1.61</v>
+      </c>
+      <c r="Y74">
+        <v>65.23999999999999</v>
+      </c>
+      <c r="Z74">
+        <v>3.38</v>
+      </c>
       <c r="AC74" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -7133,22 +8444,25 @@
       <c r="AG74">
         <v>5.987429618835449</v>
       </c>
-      <c r="AH74" t="s">
-        <v>197</v>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>301345</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75">
         <v>-4.03</v>
@@ -7166,7 +8480,7 @@
         <v>39986.87</v>
       </c>
       <c r="J75" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K75">
         <v>6</v>
@@ -7207,8 +8521,23 @@
       <c r="W75">
         <v>-0.05</v>
       </c>
+      <c r="X75">
+        <v>0.11</v>
+      </c>
+      <c r="Y75">
+        <v>162.5</v>
+      </c>
+      <c r="Z75">
+        <v>5.35</v>
+      </c>
       <c r="AC75" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -7216,22 +8545,25 @@
       <c r="AG75">
         <v>3.569839000701904</v>
       </c>
-      <c r="AH75" t="s">
-        <v>197</v>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C76">
         <v>301357</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E76">
         <v>5.37</v>
@@ -7249,7 +8581,7 @@
         <v>98236.03</v>
       </c>
       <c r="J76" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K76">
         <v>3</v>
@@ -7290,8 +8622,23 @@
       <c r="W76">
         <v>1.73</v>
       </c>
+      <c r="X76">
+        <v>-7.09</v>
+      </c>
+      <c r="Y76">
+        <v>108</v>
+      </c>
+      <c r="Z76">
+        <v>16.69</v>
+      </c>
       <c r="AC76" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>1</v>
       </c>
       <c r="AF76">
         <v>0</v>
@@ -7299,22 +8646,25 @@
       <c r="AG76">
         <v>0.4024370014667511</v>
       </c>
-      <c r="AH76" t="s">
-        <v>197</v>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C77">
         <v>301372</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E77">
         <v>-1.58</v>
@@ -7332,7 +8682,7 @@
         <v>20581.66</v>
       </c>
       <c r="J77" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K77">
         <v>1</v>
@@ -7373,8 +8723,23 @@
       <c r="W77">
         <v>0.87</v>
       </c>
+      <c r="X77">
+        <v>-9.539999999999999</v>
+      </c>
+      <c r="Y77">
+        <v>29.49</v>
+      </c>
+      <c r="Z77">
+        <v>0.85</v>
+      </c>
       <c r="AC77" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
       </c>
       <c r="AF77">
         <v>1</v>
@@ -7382,22 +8747,25 @@
       <c r="AG77">
         <v>7.55326509475708</v>
       </c>
-      <c r="AH77" t="s">
-        <v>198</v>
+      <c r="AH77">
+        <v>1</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C78">
         <v>301377</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E78">
         <v>1.52</v>
@@ -7415,7 +8783,7 @@
         <v>50959.75</v>
       </c>
       <c r="J78" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K78">
         <v>13</v>
@@ -7456,8 +8824,23 @@
       <c r="W78">
         <v>-0.27</v>
       </c>
+      <c r="X78">
+        <v>-2.11</v>
+      </c>
+      <c r="Y78">
+        <v>53.31</v>
+      </c>
+      <c r="Z78">
+        <v>-1.75</v>
+      </c>
       <c r="AC78" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
       </c>
       <c r="AF78">
         <v>0</v>
@@ -7465,22 +8848,25 @@
       <c r="AG78">
         <v>2.595189332962036</v>
       </c>
-      <c r="AH78" t="s">
-        <v>197</v>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C79">
         <v>301389</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E79">
         <v>9.08</v>
@@ -7498,7 +8884,7 @@
         <v>81919.89999999999</v>
       </c>
       <c r="J79" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K79">
         <v>18</v>
@@ -7539,8 +8925,23 @@
       <c r="W79">
         <v>1.7</v>
       </c>
+      <c r="X79">
+        <v>12.06</v>
+      </c>
+      <c r="Y79">
+        <v>45.88</v>
+      </c>
+      <c r="Z79">
+        <v>19.32</v>
+      </c>
       <c r="AC79" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>1</v>
       </c>
       <c r="AF79">
         <v>0</v>
@@ -7548,22 +8949,25 @@
       <c r="AG79">
         <v>1.918503522872925</v>
       </c>
-      <c r="AH79" t="s">
-        <v>197</v>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C80">
         <v>301392</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E80">
         <v>-2.66</v>
@@ -7581,7 +8985,7 @@
         <v>24439.9</v>
       </c>
       <c r="J80" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K80">
         <v>3</v>
@@ -7622,8 +9026,23 @@
       <c r="W80">
         <v>-0.14</v>
       </c>
+      <c r="X80">
+        <v>-4.39</v>
+      </c>
+      <c r="Y80">
+        <v>159.98</v>
+      </c>
+      <c r="Z80">
+        <v>-1.17</v>
+      </c>
       <c r="AC80" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
       </c>
       <c r="AF80">
         <v>1</v>
@@ -7631,22 +9050,25 @@
       <c r="AG80">
         <v>5.049125671386719</v>
       </c>
-      <c r="AH80" t="s">
-        <v>197</v>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C81">
         <v>301421</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E81">
         <v>-2.19</v>
@@ -7664,7 +9086,7 @@
         <v>30566.95</v>
       </c>
       <c r="J81" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K81">
         <v>29</v>
@@ -7705,8 +9127,23 @@
       <c r="W81">
         <v>-0.96</v>
       </c>
+      <c r="X81">
+        <v>-1.56</v>
+      </c>
+      <c r="Y81">
+        <v>75.8</v>
+      </c>
+      <c r="Z81">
+        <v>-0.76</v>
+      </c>
       <c r="AC81" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
       </c>
       <c r="AF81">
         <v>1</v>
@@ -7714,22 +9151,25 @@
       <c r="AG81">
         <v>7.931536197662354</v>
       </c>
-      <c r="AH81" t="s">
-        <v>197</v>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C82">
         <v>301489</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E82">
         <v>20</v>
@@ -7747,7 +9187,7 @@
         <v>58144.37</v>
       </c>
       <c r="J82" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K82">
         <v>1</v>
@@ -7788,8 +9228,23 @@
       <c r="W82">
         <v>1.03</v>
       </c>
+      <c r="X82">
+        <v>5.17</v>
+      </c>
+      <c r="Y82">
+        <v>112.97</v>
+      </c>
+      <c r="Z82">
+        <v>8.98</v>
+      </c>
       <c r="AC82" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="AD82">
+        <v>1</v>
+      </c>
+      <c r="AE82">
+        <v>1</v>
       </c>
       <c r="AF82">
         <v>1</v>
@@ -7797,22 +9252,25 @@
       <c r="AG82">
         <v>17.24407577514648</v>
       </c>
-      <c r="AH82" t="s">
-        <v>198</v>
+      <c r="AH82">
+        <v>1</v>
+      </c>
+      <c r="AI82">
+        <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C83">
         <v>301511</v>
       </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E83">
         <v>5.85</v>
@@ -7830,7 +9288,7 @@
         <v>220090.42</v>
       </c>
       <c r="J83" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K83">
         <v>28</v>
@@ -7871,8 +9329,23 @@
       <c r="W83">
         <v>0.64</v>
       </c>
+      <c r="X83">
+        <v>-0.5</v>
+      </c>
+      <c r="Y83">
+        <v>38.61</v>
+      </c>
+      <c r="Z83">
+        <v>3.04</v>
+      </c>
       <c r="AC83" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
       </c>
       <c r="AF83">
         <v>1</v>
@@ -7880,22 +9353,25 @@
       <c r="AG83">
         <v>8.711543083190918</v>
       </c>
-      <c r="AH83" t="s">
-        <v>197</v>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C84">
         <v>301526</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E84">
         <v>0.61</v>
@@ -7913,7 +9389,7 @@
         <v>54430.25</v>
       </c>
       <c r="J84" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K84">
         <v>18</v>
@@ -7954,8 +9430,23 @@
       <c r="W84">
         <v>0.22</v>
       </c>
+      <c r="X84">
+        <v>-1.84</v>
+      </c>
+      <c r="Y84">
+        <v>5</v>
+      </c>
+      <c r="Z84">
+        <v>1.83</v>
+      </c>
       <c r="AC84" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
       </c>
       <c r="AF84">
         <v>0</v>
@@ -7963,22 +9454,25 @@
       <c r="AG84">
         <v>1.419753909111023</v>
       </c>
-      <c r="AH84" t="s">
-        <v>197</v>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C85">
         <v>301580</v>
       </c>
       <c r="D85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E85">
         <v>0.33</v>
@@ -7996,7 +9490,7 @@
         <v>18637.01</v>
       </c>
       <c r="J85" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K85">
         <v>4</v>
@@ -8037,8 +9531,23 @@
       <c r="W85">
         <v>-0.27</v>
       </c>
+      <c r="X85">
+        <v>-2.54</v>
+      </c>
+      <c r="Y85">
+        <v>50.5</v>
+      </c>
+      <c r="Z85">
+        <v>-1.31</v>
+      </c>
       <c r="AC85" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
       </c>
       <c r="AF85">
         <v>0</v>
@@ -8046,22 +9555,25 @@
       <c r="AG85">
         <v>0.09220404922962189</v>
       </c>
-      <c r="AH85" t="s">
-        <v>197</v>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:34">
+    <row r="86" spans="1:35">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C86">
         <v>688020</v>
       </c>
       <c r="D86" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E86">
         <v>2.41</v>
@@ -8079,7 +9591,7 @@
         <v>61641.03</v>
       </c>
       <c r="J86" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K86">
         <v>2</v>
@@ -8120,8 +9632,23 @@
       <c r="W86">
         <v>-0.23</v>
       </c>
+      <c r="X86">
+        <v>-5.23</v>
+      </c>
+      <c r="Y86">
+        <v>56.5</v>
+      </c>
+      <c r="Z86">
+        <v>-0.77</v>
+      </c>
       <c r="AC86" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
       </c>
       <c r="AF86">
         <v>0</v>
@@ -8129,22 +9656,25 @@
       <c r="AG86">
         <v>0.4558085799217224</v>
       </c>
-      <c r="AH86" t="s">
-        <v>197</v>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:34">
+    <row r="87" spans="1:35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C87">
         <v>688062</v>
       </c>
       <c r="D87" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E87">
         <v>7.44</v>
@@ -8162,7 +9692,7 @@
         <v>57495.83</v>
       </c>
       <c r="J87" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K87">
         <v>3</v>
@@ -8203,8 +9733,23 @@
       <c r="W87">
         <v>0.14</v>
       </c>
+      <c r="X87">
+        <v>6.23</v>
+      </c>
+      <c r="Y87">
+        <v>38.14</v>
+      </c>
+      <c r="Z87">
+        <v>6.86</v>
+      </c>
       <c r="AC87" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
       </c>
       <c r="AF87">
         <v>0</v>
@@ -8212,22 +9757,25 @@
       <c r="AG87">
         <v>0.5119565725326538</v>
       </c>
-      <c r="AH87" t="s">
-        <v>197</v>
+      <c r="AH87">
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:34">
+    <row r="88" spans="1:35">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C88">
         <v>688110</v>
       </c>
       <c r="D88" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E88">
         <v>19.99</v>
@@ -8245,7 +9793,7 @@
         <v>184758.58</v>
       </c>
       <c r="J88" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K88">
         <v>3</v>
@@ -8286,8 +9834,23 @@
       <c r="W88">
         <v>0.34</v>
       </c>
+      <c r="X88">
+        <v>-11.37</v>
+      </c>
+      <c r="Y88">
+        <v>69.89</v>
+      </c>
+      <c r="Z88">
+        <v>7.92</v>
+      </c>
       <c r="AC88" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="AD88">
+        <v>1</v>
+      </c>
+      <c r="AE88">
+        <v>1</v>
       </c>
       <c r="AF88">
         <v>1</v>
@@ -8295,22 +9858,25 @@
       <c r="AG88">
         <v>3.207065105438232</v>
       </c>
-      <c r="AH88" t="s">
-        <v>198</v>
+      <c r="AH88">
+        <v>1</v>
+      </c>
+      <c r="AI88">
+        <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:34">
+    <row r="89" spans="1:35">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C89">
         <v>688189</v>
       </c>
       <c r="D89" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E89">
         <v>20.03</v>
@@ -8328,7 +9894,7 @@
         <v>54658.69</v>
       </c>
       <c r="J89" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K89">
         <v>2</v>
@@ -8369,8 +9935,23 @@
       <c r="W89">
         <v>0.09</v>
       </c>
+      <c r="X89">
+        <v>2.51</v>
+      </c>
+      <c r="Y89">
+        <v>18.78</v>
+      </c>
+      <c r="Z89">
+        <v>9.57</v>
+      </c>
       <c r="AC89" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>1</v>
       </c>
       <c r="AF89">
         <v>0</v>
@@ -8378,22 +9959,25 @@
       <c r="AG89">
         <v>15.59363746643066</v>
       </c>
-      <c r="AH89" t="s">
-        <v>197</v>
+      <c r="AH89">
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:34">
+    <row r="90" spans="1:35">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C90">
         <v>688202</v>
       </c>
       <c r="D90" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E90">
         <v>3.46</v>
@@ -8411,7 +9995,7 @@
         <v>34922.69</v>
       </c>
       <c r="J90" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K90">
         <v>18</v>
@@ -8452,8 +10036,23 @@
       <c r="W90">
         <v>-0.22</v>
       </c>
+      <c r="X90">
+        <v>-2.84</v>
+      </c>
+      <c r="Y90">
+        <v>64.8</v>
+      </c>
+      <c r="Z90">
+        <v>-0.18</v>
+      </c>
       <c r="AC90" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>0</v>
       </c>
       <c r="AF90">
         <v>0</v>
@@ -8461,22 +10060,25 @@
       <c r="AG90">
         <v>2.583176374435425</v>
       </c>
-      <c r="AH90" t="s">
-        <v>197</v>
+      <c r="AH90">
+        <v>0</v>
+      </c>
+      <c r="AI90">
+        <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:34">
+    <row r="91" spans="1:35">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C91">
         <v>688210</v>
       </c>
       <c r="D91" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E91">
         <v>-0.32</v>
@@ -8494,7 +10096,7 @@
         <v>15722.65</v>
       </c>
       <c r="J91" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K91">
         <v>6</v>
@@ -8535,8 +10137,23 @@
       <c r="W91">
         <v>-0.25</v>
       </c>
+      <c r="X91">
+        <v>6.47</v>
+      </c>
+      <c r="Y91">
+        <v>37.55</v>
+      </c>
+      <c r="Z91">
+        <v>9.48</v>
+      </c>
       <c r="AC91" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+      <c r="AE91">
+        <v>1</v>
       </c>
       <c r="AF91">
         <v>0</v>
@@ -8544,22 +10161,25 @@
       <c r="AG91">
         <v>2.506396770477295</v>
       </c>
-      <c r="AH91" t="s">
-        <v>197</v>
+      <c r="AH91">
+        <v>0</v>
+      </c>
+      <c r="AI91">
+        <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:34">
+    <row r="92" spans="1:35">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C92">
         <v>688221</v>
       </c>
       <c r="D92" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E92">
         <v>0.68</v>
@@ -8577,7 +10197,7 @@
         <v>41832.31</v>
       </c>
       <c r="J92" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K92">
         <v>4</v>
@@ -8618,8 +10238,23 @@
       <c r="W92">
         <v>-0.53</v>
       </c>
+      <c r="X92">
+        <v>0.28</v>
+      </c>
+      <c r="Y92">
+        <v>23.3</v>
+      </c>
+      <c r="Z92">
+        <v>4.16</v>
+      </c>
       <c r="AC92" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
+      <c r="AE92">
+        <v>0</v>
       </c>
       <c r="AF92">
         <v>1</v>
@@ -8627,22 +10262,25 @@
       <c r="AG92">
         <v>5.491114139556885</v>
       </c>
-      <c r="AH92" t="s">
-        <v>197</v>
+      <c r="AH92">
+        <v>0</v>
+      </c>
+      <c r="AI92">
+        <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:34">
+    <row r="93" spans="1:35">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C93">
         <v>688222</v>
       </c>
       <c r="D93" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E93">
         <v>0.89</v>
@@ -8660,7 +10298,7 @@
         <v>44830.33</v>
       </c>
       <c r="J93" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K93">
         <v>10</v>
@@ -8701,8 +10339,23 @@
       <c r="W93">
         <v>-0.23</v>
       </c>
+      <c r="X93">
+        <v>1.66</v>
+      </c>
+      <c r="Y93">
+        <v>25.3</v>
+      </c>
+      <c r="Z93">
+        <v>6.04</v>
+      </c>
       <c r="AC93" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD93">
+        <v>0</v>
+      </c>
+      <c r="AE93">
+        <v>0</v>
       </c>
       <c r="AF93">
         <v>0</v>
@@ -8710,22 +10363,25 @@
       <c r="AG93">
         <v>5.276195526123047</v>
       </c>
-      <c r="AH93" t="s">
-        <v>197</v>
+      <c r="AH93">
+        <v>0</v>
+      </c>
+      <c r="AI93">
+        <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:34">
+    <row r="94" spans="1:35">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C94">
         <v>688313</v>
       </c>
       <c r="D94" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E94">
         <v>0.86</v>
@@ -8743,7 +10399,7 @@
         <v>171194.36</v>
       </c>
       <c r="J94" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K94">
         <v>32</v>
@@ -8784,8 +10440,23 @@
       <c r="W94">
         <v>-0.22</v>
       </c>
+      <c r="X94">
+        <v>2.51</v>
+      </c>
+      <c r="Y94">
+        <v>55.48</v>
+      </c>
+      <c r="Z94">
+        <v>-10.99</v>
+      </c>
       <c r="AC94" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD94">
+        <v>0</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
       </c>
       <c r="AF94">
         <v>1</v>
@@ -8793,22 +10464,25 @@
       <c r="AG94">
         <v>4.303820133209229</v>
       </c>
-      <c r="AH94" t="s">
-        <v>197</v>
+      <c r="AH94">
+        <v>0</v>
+      </c>
+      <c r="AI94">
+        <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:34">
+    <row r="95" spans="1:35">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C95">
         <v>688499</v>
       </c>
       <c r="D95" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E95">
         <v>-0.45</v>
@@ -8826,7 +10500,7 @@
         <v>39787.32</v>
       </c>
       <c r="J95" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K95">
         <v>33</v>
@@ -8867,8 +10541,23 @@
       <c r="W95">
         <v>-0.6899999999999999</v>
       </c>
+      <c r="X95">
+        <v>-3.38</v>
+      </c>
+      <c r="Y95">
+        <v>52.51</v>
+      </c>
+      <c r="Z95">
+        <v>-2.11</v>
+      </c>
       <c r="AC95" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD95">
+        <v>0</v>
+      </c>
+      <c r="AE95">
+        <v>0</v>
       </c>
       <c r="AF95">
         <v>1</v>
@@ -8876,22 +10565,25 @@
       <c r="AG95">
         <v>2.845976114273071</v>
       </c>
-      <c r="AH95" t="s">
-        <v>197</v>
+      <c r="AH95">
+        <v>0</v>
+      </c>
+      <c r="AI95">
+        <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:34">
+    <row r="96" spans="1:35">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C96">
         <v>688502</v>
       </c>
       <c r="D96" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E96">
         <v>-2.64</v>
@@ -8909,7 +10601,7 @@
         <v>30789.81</v>
       </c>
       <c r="J96" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K96">
         <v>4</v>
@@ -8950,8 +10642,23 @@
       <c r="W96">
         <v>-0.85</v>
       </c>
+      <c r="X96">
+        <v>-1.77</v>
+      </c>
+      <c r="Y96">
+        <v>333.89</v>
+      </c>
+      <c r="Z96">
+        <v>-1.51</v>
+      </c>
       <c r="AC96" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD96">
+        <v>0</v>
+      </c>
+      <c r="AE96">
+        <v>0</v>
       </c>
       <c r="AF96">
         <v>0</v>
@@ -8959,22 +10666,25 @@
       <c r="AG96">
         <v>1.016805648803711</v>
       </c>
-      <c r="AH96" t="s">
-        <v>197</v>
+      <c r="AH96">
+        <v>0</v>
+      </c>
+      <c r="AI96">
+        <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:34">
+    <row r="97" spans="1:35">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C97">
         <v>688556</v>
       </c>
       <c r="D97" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E97">
         <v>0.28</v>
@@ -8992,7 +10702,7 @@
         <v>30686.6</v>
       </c>
       <c r="J97" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K97">
         <v>4</v>
@@ -9033,8 +10743,23 @@
       <c r="W97">
         <v>-0.01</v>
       </c>
+      <c r="X97">
+        <v>1.91</v>
+      </c>
+      <c r="Y97">
+        <v>11.29</v>
+      </c>
+      <c r="Z97">
+        <v>6.21</v>
+      </c>
       <c r="AC97" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD97">
+        <v>0</v>
+      </c>
+      <c r="AE97">
+        <v>0</v>
       </c>
       <c r="AF97">
         <v>0</v>
@@ -9042,22 +10767,25 @@
       <c r="AG97">
         <v>1.525019288063049</v>
       </c>
-      <c r="AH97" t="s">
-        <v>197</v>
+      <c r="AH97">
+        <v>0</v>
+      </c>
+      <c r="AI97">
+        <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:34">
+    <row r="98" spans="1:35">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C98">
         <v>688603</v>
       </c>
       <c r="D98" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E98">
         <v>6.64</v>
@@ -9075,7 +10803,7 @@
         <v>43893.53</v>
       </c>
       <c r="J98" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K98">
         <v>2</v>
@@ -9116,8 +10844,23 @@
       <c r="W98">
         <v>-0.22</v>
       </c>
+      <c r="X98">
+        <v>2.65</v>
+      </c>
+      <c r="Y98">
+        <v>67</v>
+      </c>
+      <c r="Z98">
+        <v>-1.83</v>
+      </c>
       <c r="AC98" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD98">
+        <v>0</v>
+      </c>
+      <c r="AE98">
+        <v>0</v>
       </c>
       <c r="AF98">
         <v>0</v>
@@ -9125,22 +10868,25 @@
       <c r="AG98">
         <v>4.623202323913574</v>
       </c>
-      <c r="AH98" t="s">
-        <v>197</v>
+      <c r="AH98">
+        <v>0</v>
+      </c>
+      <c r="AI98">
+        <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:34">
+    <row r="99" spans="1:35">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C99">
         <v>688630</v>
       </c>
       <c r="D99" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E99">
         <v>5.14</v>
@@ -9158,7 +10904,7 @@
         <v>105025.23</v>
       </c>
       <c r="J99" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K99">
         <v>6</v>
@@ -9199,8 +10945,23 @@
       <c r="W99">
         <v>0.24</v>
       </c>
+      <c r="X99">
+        <v>-4.3</v>
+      </c>
+      <c r="Y99">
+        <v>123.99</v>
+      </c>
+      <c r="Z99">
+        <v>-4.62</v>
+      </c>
       <c r="AC99" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD99">
+        <v>0</v>
+      </c>
+      <c r="AE99">
+        <v>0</v>
       </c>
       <c r="AF99">
         <v>0</v>
@@ -9208,22 +10969,25 @@
       <c r="AG99">
         <v>1.002371072769165</v>
       </c>
-      <c r="AH99" t="s">
-        <v>197</v>
+      <c r="AH99">
+        <v>0</v>
+      </c>
+      <c r="AI99">
+        <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:34">
+    <row r="100" spans="1:35">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C100">
         <v>688660</v>
       </c>
       <c r="D100" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E100">
         <v>-9.73</v>
@@ -9241,7 +11005,7 @@
         <v>96320</v>
       </c>
       <c r="J100" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K100">
         <v>7</v>
@@ -9282,8 +11046,23 @@
       <c r="W100">
         <v>-0.62</v>
       </c>
+      <c r="X100">
+        <v>4.98</v>
+      </c>
+      <c r="Y100">
+        <v>15.33</v>
+      </c>
+      <c r="Z100">
+        <v>0.72</v>
+      </c>
       <c r="AC100" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD100">
+        <v>0</v>
+      </c>
+      <c r="AE100">
+        <v>0</v>
       </c>
       <c r="AF100">
         <v>0</v>
@@ -9291,22 +11070,25 @@
       <c r="AG100">
         <v>3.3237624168396</v>
       </c>
-      <c r="AH100" t="s">
-        <v>197</v>
+      <c r="AH100">
+        <v>0</v>
+      </c>
+      <c r="AI100">
+        <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:34">
+    <row r="101" spans="1:35">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C101">
         <v>688668</v>
       </c>
       <c r="D101" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E101">
         <v>15.35</v>
@@ -9324,7 +11106,7 @@
         <v>102584.5</v>
       </c>
       <c r="J101" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K101">
         <v>11</v>
@@ -9365,8 +11147,23 @@
       <c r="W101">
         <v>-0.15</v>
       </c>
+      <c r="X101">
+        <v>-6.13</v>
+      </c>
+      <c r="Y101">
+        <v>94.38</v>
+      </c>
+      <c r="Z101">
+        <v>-5.94</v>
+      </c>
       <c r="AC101" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD101">
+        <v>0</v>
+      </c>
+      <c r="AE101">
+        <v>0</v>
       </c>
       <c r="AF101">
         <v>0</v>
@@ -9374,22 +11171,25 @@
       <c r="AG101">
         <v>5.315390586853027</v>
       </c>
-      <c r="AH101" t="s">
-        <v>197</v>
+      <c r="AH101">
+        <v>0</v>
+      </c>
+      <c r="AI101">
+        <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:34">
+    <row r="102" spans="1:35">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C102">
         <v>688787</v>
       </c>
       <c r="D102" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E102">
         <v>2.16</v>
@@ -9407,7 +11207,7 @@
         <v>33049.6</v>
       </c>
       <c r="J102" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K102">
         <v>1</v>
@@ -9448,8 +11248,23 @@
       <c r="W102">
         <v>0.11</v>
       </c>
+      <c r="X102">
+        <v>0.93</v>
+      </c>
+      <c r="Y102">
+        <v>138.8</v>
+      </c>
+      <c r="Z102">
+        <v>-2.47</v>
+      </c>
       <c r="AC102" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="AD102">
+        <v>0</v>
+      </c>
+      <c r="AE102">
+        <v>0</v>
       </c>
       <c r="AF102">
         <v>0</v>
@@ -9457,8 +11272,11 @@
       <c r="AG102">
         <v>2.727978467941284</v>
       </c>
-      <c r="AH102" t="s">
-        <v>197</v>
+      <c r="AH102">
+        <v>0</v>
+      </c>
+      <c r="AI102">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
